--- a/data/158/COJ/old/s11rn_en.xlsx
+++ b/data/158/COJ/old/s11rn_en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="-20" windowWidth="28850" windowHeight="4250"/>
+    <workbookView xWindow="5430" yWindow="-30" windowWidth="28845" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="F.Year" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">F.Year!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Quarter!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="21">
   <si>
     <t>Real: Chain-linked</t>
     <phoneticPr fontId="1"/>
@@ -713,36 +713,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" customWidth="1"/>
-    <col min="2" max="91" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="62.59765625" customWidth="1"/>
+    <col min="2" max="92" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="18"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="18"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="H4" s="7"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -784,9 +784,10 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
@@ -865,11 +866,14 @@
       <c r="Z6" s="6">
         <v>2018</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB6" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -896,9 +900,10 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
@@ -972,16 +977,19 @@
         <v>22248.9</v>
       </c>
       <c r="Y8" s="19">
-        <v>23055.7</v>
+        <v>23058.9</v>
       </c>
       <c r="Z8" s="19">
-        <v>23456.400000000001</v>
-      </c>
-      <c r="AA8" s="29">
-        <v>23212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>23477.7</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>23029</v>
+      </c>
+      <c r="AB8" s="29">
+        <v>22135.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
@@ -1055,16 +1063,19 @@
         <v>15834.5</v>
       </c>
       <c r="Y9" s="19">
-        <v>16327.5</v>
+        <v>16352.4</v>
       </c>
       <c r="Z9" s="19">
-        <v>16699.5</v>
-      </c>
-      <c r="AA9" s="30">
-        <v>16132.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>16793.400000000001</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>16280.2</v>
+      </c>
+      <c r="AB9" s="30">
+        <v>15461.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
@@ -1138,16 +1149,19 @@
         <v>81239.600000000006</v>
       </c>
       <c r="Y10" s="19">
-        <v>81982.899999999994</v>
+        <v>81964.600000000006</v>
       </c>
       <c r="Z10" s="19">
-        <v>80933.600000000006</v>
-      </c>
-      <c r="AA10" s="30">
-        <v>79976.899999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>80871.199999999997</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>79820.5</v>
+      </c>
+      <c r="AB10" s="30">
+        <v>77759.899999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>11</v>
       </c>
@@ -1221,16 +1235,19 @@
         <v>173493.2</v>
       </c>
       <c r="Y11" s="19">
-        <v>175292.5</v>
+        <v>175246.4</v>
       </c>
       <c r="Z11" s="19">
-        <v>177152.2</v>
-      </c>
-      <c r="AA11" s="30">
-        <v>175202.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>176856.8</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>174876.5</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>158407.79999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1257,9 +1274,10 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
-      <c r="AA12" s="30"/>
-    </row>
-    <row r="13" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="30"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
@@ -1333,16 +1351,19 @@
         <v>292816.90000000002</v>
       </c>
       <c r="Y13" s="19">
-        <v>296650.59999999998</v>
+        <v>296615.7</v>
       </c>
       <c r="Z13" s="19">
-        <v>298216.5</v>
-      </c>
-      <c r="AA13" s="30">
-        <v>294495.09999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>297973.09999999998</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>293985.2</v>
+      </c>
+      <c r="AB13" s="30">
+        <v>273859.09999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1369,9 +1390,10 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
-      <c r="AA14" s="30"/>
-    </row>
-    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="30"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
@@ -1448,13 +1470,16 @@
         <v>1813.2</v>
       </c>
       <c r="Z15" s="19">
-        <v>1957.7</v>
-      </c>
-      <c r="AA15" s="30">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>1957.3</v>
+      </c>
+      <c r="AA15" s="19">
+        <v>1934.9</v>
+      </c>
+      <c r="AB15" s="30">
+        <v>292.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
@@ -1531,13 +1556,16 @@
         <v>3704.6</v>
       </c>
       <c r="Z16" s="19">
-        <v>4254.3999999999996</v>
-      </c>
-      <c r="AA16" s="30">
-        <v>4032.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>4254.8</v>
+      </c>
+      <c r="AA16" s="19">
+        <v>4032.2</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>501.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
@@ -1611,16 +1639,19 @@
         <v>291668.8</v>
       </c>
       <c r="Y17" s="21">
-        <v>294770</v>
+        <v>294734.7</v>
       </c>
       <c r="Z17" s="21">
-        <v>295919.40000000002</v>
-      </c>
-      <c r="AA17" s="31">
-        <v>292402.59999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>295675.8</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>291896.3</v>
+      </c>
+      <c r="AB17" s="31">
+        <v>273801.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1632,7 +1663,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1644,7 +1675,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1655,7 +1686,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1666,7 +1697,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1677,7 +1708,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1688,7 +1719,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1699,7 +1730,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1710,7 +1741,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1735,36 +1766,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" customWidth="1"/>
-    <col min="2" max="91" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="62.59765625" customWidth="1"/>
+    <col min="2" max="92" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="18"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -1779,7 +1810,7 @@
       <c r="H4" s="7"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1806,9 +1837,10 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
@@ -1887,11 +1919,14 @@
       <c r="Z6" s="6">
         <v>2018</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB6" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1918,9 +1953,10 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
@@ -1997,13 +2033,16 @@
         <v>23062.7</v>
       </c>
       <c r="Z8" s="19">
-        <v>23387</v>
-      </c>
-      <c r="AA8" s="29">
-        <v>23593.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>23428.400000000001</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>23422</v>
+      </c>
+      <c r="AB8" s="29">
+        <v>21758.400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
@@ -2080,13 +2119,16 @@
         <v>16301.8</v>
       </c>
       <c r="Z9" s="19">
-        <v>16685</v>
-      </c>
-      <c r="AA9" s="30">
-        <v>16388.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>16782.599999999999</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>16510.2</v>
+      </c>
+      <c r="AB9" s="30">
+        <v>15594.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
@@ -2163,13 +2205,16 @@
         <v>81745.899999999994</v>
       </c>
       <c r="Z10" s="19">
-        <v>81309.899999999994</v>
-      </c>
-      <c r="AA10" s="30">
-        <v>80212.600000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>81287</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>79889.3</v>
+      </c>
+      <c r="AB10" s="30">
+        <v>78147.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>11</v>
       </c>
@@ -2246,13 +2291,16 @@
         <v>174999</v>
       </c>
       <c r="Z11" s="19">
-        <v>176729.4</v>
-      </c>
-      <c r="AA11" s="30">
-        <v>176885.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>176497.7</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>176380.9</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>161269.70000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -2279,9 +2327,10 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
-      <c r="AA12" s="30"/>
-    </row>
-    <row r="13" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="30"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
@@ -2358,13 +2407,16 @@
         <v>296108.90000000002</v>
       </c>
       <c r="Z13" s="19">
-        <v>298101.8</v>
-      </c>
-      <c r="AA13" s="30">
-        <v>297035.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>297986.7</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>296160.90000000002</v>
+      </c>
+      <c r="AB13" s="30">
+        <v>276857.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -2391,9 +2443,10 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
-      <c r="AA14" s="30"/>
-    </row>
-    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="30"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
@@ -2472,11 +2525,14 @@
       <c r="Z15" s="19">
         <v>1908.5</v>
       </c>
-      <c r="AA15" s="30">
-        <v>2092.6999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA15" s="19">
+        <v>2092.3000000000002</v>
+      </c>
+      <c r="AB15" s="30">
+        <v>566.29999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
@@ -2555,11 +2611,14 @@
       <c r="Z16" s="19">
         <v>4194.6000000000004</v>
       </c>
-      <c r="AA16" s="30">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA16" s="19">
+        <v>4470.8</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>1016.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
@@ -2636,13 +2695,16 @@
         <v>294444.5</v>
       </c>
       <c r="Z17" s="21">
-        <v>295818.40000000002</v>
-      </c>
-      <c r="AA17" s="31">
-        <v>294650.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>295703.3</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>293775.3</v>
+      </c>
+      <c r="AB17" s="31">
+        <v>276535.40000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2654,7 +2716,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2666,7 +2728,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2677,7 +2739,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2688,7 +2750,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2699,7 +2761,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2710,7 +2772,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2721,7 +2783,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2732,7 +2794,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2757,36 +2819,36 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:DB19"/>
+  <dimension ref="A1:DF19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="3" customWidth="1"/>
-    <col min="2" max="186" width="15.5703125" style="3" customWidth="1"/>
-    <col min="187" max="16384" width="8.5703125" style="3"/>
+    <col min="1" max="1" width="62.59765625" style="3" customWidth="1"/>
+    <col min="2" max="190" width="15.59765625" style="3" customWidth="1"/>
+    <col min="191" max="16384" width="8.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:110" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:106" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:110" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18"/>
     </row>
-    <row r="3" spans="1:106" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:110" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="18"/>
     </row>
-    <row r="4" spans="1:106" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:110" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -2830,7 +2892,7 @@
       <c r="AK4" s="16"/>
       <c r="AL4" s="16"/>
     </row>
-    <row r="5" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="5">
         <v>1994</v>
@@ -3144,11 +3206,23 @@
       <c r="DA5" s="5">
         <v>2019</v>
       </c>
-      <c r="DB5" s="9">
+      <c r="DB5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DC5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="DD5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="DE5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="DF5" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
@@ -3256,9 +3330,13 @@
       <c r="CY6" s="6"/>
       <c r="CZ6" s="6"/>
       <c r="DA6" s="6"/>
-      <c r="DB6" s="10"/>
-    </row>
-    <row r="7" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DB6" s="6"/>
+      <c r="DC6" s="6"/>
+      <c r="DD6" s="6"/>
+      <c r="DE6" s="6"/>
+      <c r="DF6" s="10"/>
+    </row>
+    <row r="7" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="8" t="s">
         <v>16</v>
@@ -3572,11 +3650,23 @@
       <c r="DA7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="DB7" s="11" t="s">
+      <c r="DB7" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DC7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="DD7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="DE7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="DF7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
@@ -3869,34 +3959,46 @@
         <v>6054.1</v>
       </c>
       <c r="CT8" s="19">
-        <v>6039.5</v>
+        <v>6042.7</v>
       </c>
       <c r="CU8" s="19">
-        <v>5402.6</v>
+        <v>5412.4</v>
       </c>
       <c r="CV8" s="19">
-        <v>5737.5</v>
+        <v>5750.2</v>
       </c>
       <c r="CW8" s="19">
-        <v>6207.4</v>
+        <v>6223.1</v>
       </c>
       <c r="CX8" s="19">
-        <v>6108.8</v>
+        <v>6092</v>
       </c>
       <c r="CY8" s="19">
-        <v>5713.6</v>
+        <v>5677.7</v>
       </c>
       <c r="CZ8" s="19">
-        <v>6220.2</v>
+        <v>6155.1</v>
       </c>
       <c r="DA8" s="19">
-        <v>5551.1</v>
-      </c>
-      <c r="DB8" s="29">
-        <v>5727.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>5497.1</v>
+      </c>
+      <c r="DB8" s="19">
+        <v>5699</v>
+      </c>
+      <c r="DC8" s="19">
+        <v>4700.7</v>
+      </c>
+      <c r="DD8" s="19">
+        <v>5318.8</v>
+      </c>
+      <c r="DE8" s="19">
+        <v>6039.9</v>
+      </c>
+      <c r="DF8" s="29">
+        <v>6075.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
@@ -4189,34 +4291,46 @@
         <v>4274.1000000000004</v>
       </c>
       <c r="CT9" s="19">
-        <v>4337.7</v>
+        <v>4362.6000000000004</v>
       </c>
       <c r="CU9" s="19">
-        <v>3778.9</v>
+        <v>3803.7</v>
       </c>
       <c r="CV9" s="19">
-        <v>4077</v>
+        <v>4102.8999999999996</v>
       </c>
       <c r="CW9" s="19">
-        <v>4491.6000000000004</v>
+        <v>4513.3999999999996</v>
       </c>
       <c r="CX9" s="19">
-        <v>4352.1000000000004</v>
+        <v>4373.3999999999996</v>
       </c>
       <c r="CY9" s="19">
-        <v>3756.8</v>
+        <v>3775.7</v>
       </c>
       <c r="CZ9" s="19">
-        <v>4140.3999999999996</v>
+        <v>4169.3999999999996</v>
       </c>
       <c r="DA9" s="19">
-        <v>4139.3</v>
-      </c>
-      <c r="DB9" s="30">
-        <v>4095.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>4191.7</v>
+      </c>
+      <c r="DB9" s="19">
+        <v>4143.3999999999996</v>
+      </c>
+      <c r="DC9" s="19">
+        <v>3551.3</v>
+      </c>
+      <c r="DD9" s="19">
+        <v>3789.2</v>
+      </c>
+      <c r="DE9" s="19">
+        <v>4110.3</v>
+      </c>
+      <c r="DF9" s="30">
+        <v>4011.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
@@ -4509,34 +4623,46 @@
         <v>21176</v>
       </c>
       <c r="CT10" s="19">
-        <v>20166.099999999999</v>
+        <v>20147.900000000001</v>
       </c>
       <c r="CU10" s="19">
-        <v>20262.7</v>
+        <v>20259.2</v>
       </c>
       <c r="CV10" s="19">
-        <v>20334.099999999999</v>
+        <v>20334.8</v>
       </c>
       <c r="CW10" s="19">
-        <v>20547</v>
+        <v>20545.099999999999</v>
       </c>
       <c r="CX10" s="19">
-        <v>19789.8</v>
+        <v>19732.099999999999</v>
       </c>
       <c r="CY10" s="19">
-        <v>20119.3</v>
+        <v>20074.2</v>
       </c>
       <c r="CZ10" s="19">
-        <v>20122</v>
+        <v>20057.400000000001</v>
       </c>
       <c r="DA10" s="19">
-        <v>20181.400000000001</v>
-      </c>
-      <c r="DB10" s="30">
-        <v>19554.099999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>20025.599999999999</v>
+      </c>
+      <c r="DB10" s="19">
+        <v>19663.3</v>
+      </c>
+      <c r="DC10" s="19">
+        <v>19074.3</v>
+      </c>
+      <c r="DD10" s="19">
+        <v>19499</v>
+      </c>
+      <c r="DE10" s="19">
+        <v>19910.900000000001</v>
+      </c>
+      <c r="DF10" s="30">
+        <v>19275.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>11</v>
       </c>
@@ -4829,34 +4955,46 @@
         <v>43978.8</v>
       </c>
       <c r="CT11" s="19">
-        <v>43766.5</v>
+        <v>43720.4</v>
       </c>
       <c r="CU11" s="19">
-        <v>44188.3</v>
+        <v>44136.3</v>
       </c>
       <c r="CV11" s="19">
-        <v>44158.3</v>
+        <v>44097.7</v>
       </c>
       <c r="CW11" s="19">
-        <v>44616.3</v>
+        <v>44543.3</v>
       </c>
       <c r="CX11" s="19">
-        <v>44189.3</v>
+        <v>44079.5</v>
       </c>
       <c r="CY11" s="19">
-        <v>44283.7</v>
+        <v>44104.4</v>
       </c>
       <c r="CZ11" s="19">
-        <v>44456.5</v>
+        <v>44294.3</v>
       </c>
       <c r="DA11" s="19">
-        <v>43955.9</v>
-      </c>
-      <c r="DB11" s="30">
-        <v>42506.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>43902.8</v>
+      </c>
+      <c r="DB11" s="19">
+        <v>42575.1</v>
+      </c>
+      <c r="DC11" s="19">
+        <v>37218.9</v>
+      </c>
+      <c r="DD11" s="19">
+        <v>40043</v>
+      </c>
+      <c r="DE11" s="19">
+        <v>41432.699999999997</v>
+      </c>
+      <c r="DF11" s="30">
+        <v>39713.199999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4962,9 +5100,13 @@
       <c r="CY12" s="19"/>
       <c r="CZ12" s="19"/>
       <c r="DA12" s="19"/>
-      <c r="DB12" s="30"/>
-    </row>
-    <row r="13" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DB12" s="19"/>
+      <c r="DC12" s="19"/>
+      <c r="DD12" s="19"/>
+      <c r="DE12" s="19"/>
+      <c r="DF12" s="30"/>
+    </row>
+    <row r="13" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
@@ -5257,34 +5399,46 @@
         <v>75482.7</v>
       </c>
       <c r="CT13" s="19">
-        <v>74304.7</v>
+        <v>74269.8</v>
       </c>
       <c r="CU13" s="19">
-        <v>73635.100000000006</v>
+        <v>73614.399999999994</v>
       </c>
       <c r="CV13" s="19">
-        <v>74306.2</v>
+        <v>74284.5</v>
       </c>
       <c r="CW13" s="19">
-        <v>75855.8</v>
+        <v>75818</v>
       </c>
       <c r="CX13" s="19">
-        <v>74419.399999999994</v>
+        <v>74256.2</v>
       </c>
       <c r="CY13" s="19">
-        <v>73868</v>
+        <v>73628</v>
       </c>
       <c r="CZ13" s="19">
-        <v>74916.3</v>
+        <v>74655.8</v>
       </c>
       <c r="DA13" s="19">
-        <v>73832.2</v>
-      </c>
-      <c r="DB13" s="30">
-        <v>71878.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>73620.899999999994</v>
+      </c>
+      <c r="DB13" s="19">
+        <v>72080.5</v>
+      </c>
+      <c r="DC13" s="19">
+        <v>64601.2</v>
+      </c>
+      <c r="DD13" s="19">
+        <v>68676.100000000006</v>
+      </c>
+      <c r="DE13" s="19">
+        <v>71499.600000000006</v>
+      </c>
+      <c r="DF13" s="30">
+        <v>69082.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5390,9 +5544,13 @@
       <c r="CY14" s="19"/>
       <c r="CZ14" s="19"/>
       <c r="DA14" s="19"/>
-      <c r="DB14" s="30"/>
-    </row>
-    <row r="15" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DB14" s="19"/>
+      <c r="DC14" s="19"/>
+      <c r="DD14" s="19"/>
+      <c r="DE14" s="19"/>
+      <c r="DF14" s="30"/>
+    </row>
+    <row r="15" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
@@ -5697,22 +5855,34 @@
         <v>496.4</v>
       </c>
       <c r="CX15" s="19">
-        <v>504.5</v>
+        <v>504.2</v>
       </c>
       <c r="CY15" s="19">
-        <v>477.5</v>
+        <v>478.3</v>
       </c>
       <c r="CZ15" s="19">
-        <v>584.6</v>
+        <v>584</v>
       </c>
       <c r="DA15" s="19">
-        <v>526</v>
-      </c>
-      <c r="DB15" s="30">
-        <v>342.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>525.79999999999995</v>
+      </c>
+      <c r="DB15" s="19">
+        <v>346.8</v>
+      </c>
+      <c r="DC15" s="19">
+        <v>69.2</v>
+      </c>
+      <c r="DD15" s="19">
+        <v>74.5</v>
+      </c>
+      <c r="DE15" s="19">
+        <v>75.8</v>
+      </c>
+      <c r="DF15" s="30">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
@@ -6017,22 +6187,34 @@
         <v>1098.2</v>
       </c>
       <c r="CX16" s="19">
-        <v>1070.4000000000001</v>
+        <v>1070.8</v>
       </c>
       <c r="CY16" s="19">
-        <v>1206.3</v>
+        <v>1206.4000000000001</v>
       </c>
       <c r="CZ16" s="19">
-        <v>1058.9000000000001</v>
+        <v>1058.5999999999999</v>
       </c>
       <c r="DA16" s="19">
-        <v>1135.5</v>
-      </c>
-      <c r="DB16" s="30">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>1134.9000000000001</v>
+      </c>
+      <c r="DB16" s="19">
+        <v>632.29999999999995</v>
+      </c>
+      <c r="DC16" s="19">
+        <v>126.7</v>
+      </c>
+      <c r="DD16" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="DE16" s="19">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="DF16" s="30">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
@@ -6325,34 +6507,46 @@
         <v>75007.8</v>
       </c>
       <c r="CT17" s="21">
-        <v>73751.8</v>
+        <v>73716.5</v>
       </c>
       <c r="CU17" s="21">
-        <v>72971.100000000006</v>
+        <v>72950.399999999994</v>
       </c>
       <c r="CV17" s="21">
-        <v>73841.7</v>
+        <v>73820.2</v>
       </c>
       <c r="CW17" s="21">
-        <v>75253.7</v>
+        <v>75216.100000000006</v>
       </c>
       <c r="CX17" s="21">
-        <v>73852.899999999994</v>
+        <v>73689.100000000006</v>
       </c>
       <c r="CY17" s="21">
-        <v>73138.100000000006</v>
+        <v>72898.8</v>
       </c>
       <c r="CZ17" s="21">
-        <v>74439</v>
+        <v>74178</v>
       </c>
       <c r="DA17" s="21">
-        <v>73220.7</v>
-      </c>
-      <c r="DB17" s="31">
-        <v>71604.800000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:106" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73009.5</v>
+      </c>
+      <c r="DB17" s="21">
+        <v>71810</v>
+      </c>
+      <c r="DC17" s="21">
+        <v>64579.4</v>
+      </c>
+      <c r="DD17" s="21">
+        <v>68660.7</v>
+      </c>
+      <c r="DE17" s="21">
+        <v>71485.2</v>
+      </c>
+      <c r="DF17" s="31">
+        <v>69076.399999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:110" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6387,7 +6581,7 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
     </row>
   </sheetData>
